--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2081820.144870295</v>
+        <v>2130692.179821239</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248444</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5694683.176039825</v>
+        <v>5770001.757012149</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>274.8212597398785</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.484581935008</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491226</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>146.6325435271071</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>421.4646424174332</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>324.467185773551</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>55.26522771132768</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>3.10768262038589</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>327.2879775827834</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>392.8538422972916</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>41.26176538196641</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>246.7675307998115</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>122.974276743058</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>237.9345658720223</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>32.67077719907196</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>75.86622810093056</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>125.6544692828961</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>338.1812735516046</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2005,22 +2005,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>109.1426757626845</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170442</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2242,22 +2242,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>28.46824604904495</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>109.1426757626846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2479,22 +2479,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>161.9991594537278</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>60.78001549303697</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170558</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225762</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I37" t="n">
-        <v>35.3478058351354</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3673,7 +3673,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,10 +3724,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>34.7181121725785</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>23.21215624113674</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>425.1626604146201</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,7 +3797,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>163.6395778340024</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4037,7 +4037,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>132.7957673084567</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>82.15263531037748</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4328,28 +4328,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>854.4618996557366</v>
       </c>
       <c r="X2" t="n">
-        <v>510.5685620045878</v>
+        <v>839.3598402754513</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>431.0737165751048</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4486,25 +4486,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4516,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>1549.069749750006</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>1303.677995083419</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.258324397527</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>561.5849947540278</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>135.8631337263175</v>
       </c>
       <c r="D5" t="n">
-        <v>790.269974958836</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>361.6883006961043</v>
+        <v>74.25941213986529</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1975.120543515259</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.128202908534</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1411.272748319567</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>992.1302848988781</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>583.8441611985315</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1580.010651986078</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1580.010651986078</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>431.6596472970919</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943.243825464227</v>
+        <v>614.4535569886666</v>
       </c>
       <c r="C7" t="n">
-        <v>770.682113947452</v>
+        <v>441.8918454718915</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8041211489747</v>
+        <v>276.0138526734142</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>106.2558489241515</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>266.2978593068801</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>684.5077410748412</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1143.991608255754</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1586.250411413399</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.91966063918</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2362.377960771851</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2116.498514350306</v>
       </c>
       <c r="U7" t="n">
-        <v>1694.044356726492</v>
+        <v>1838.065513603411</v>
       </c>
       <c r="V7" t="n">
-        <v>1407.088848596923</v>
+        <v>1551.110005473842</v>
       </c>
       <c r="W7" t="n">
-        <v>1135.062444183214</v>
+        <v>1279.083601060133</v>
       </c>
       <c r="X7" t="n">
-        <v>1135.062444183214</v>
+        <v>1033.691846393546</v>
       </c>
       <c r="Y7" t="n">
-        <v>1135.062444183214</v>
+        <v>806.2721757076538</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.6806259663152</v>
+        <v>1236.87384512419</v>
       </c>
       <c r="C8" t="n">
-        <v>418.0989517035836</v>
+        <v>1202.771776348018</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1170.902395562866</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1141.168054761566</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>1259.133011568694</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1655.504879189542</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.478474775834</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1138.086720109246</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>910.6670494233545</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.308741984731</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168154</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928798</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245815</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179641</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590674</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169985</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469638</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.134188067672</v>
+        <v>849.8497331100115</v>
       </c>
       <c r="C13" t="n">
-        <v>914.5724765508968</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="D13" t="n">
-        <v>748.6944837524195</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E13" t="n">
-        <v>578.9364800031568</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F13" t="n">
-        <v>402.229425964913</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907407</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2713.395586583915</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2589.179145429311</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2310.746144682416</v>
+        <v>2073.461689724756</v>
       </c>
       <c r="V13" t="n">
-        <v>2023.790636552847</v>
+        <v>1786.506181595186</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.764232139138</v>
+        <v>1514.479777181478</v>
       </c>
       <c r="X13" t="n">
-        <v>1506.372477472551</v>
+        <v>1269.08802251489</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.952806786659</v>
+        <v>1041.668351828999</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693462</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006191</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257034</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284814</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902376</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160652</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064397</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S16" t="n">
-        <v>2636.763032946611</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T16" t="n">
-        <v>2390.883586525066</v>
+        <v>2411.337553830592</v>
       </c>
       <c r="U16" t="n">
-        <v>2112.450585778171</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.677328997525</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277509</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510148</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423107</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2574.179093706255</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2574.179093706255</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.358760276561</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4382.668635109958</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.167421068553</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068553</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068553</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4709.100193941592</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4449.877891258609</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4087.260941192435</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3682.405486603468</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3263.263023182779</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2854.976899482433</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.077185838983</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>635.5154743222079</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>469.6374815237305</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="E19" t="n">
-        <v>299.8794777744678</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F19" t="n">
-        <v>123.172423736224</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137107</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137107</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200622</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324158</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243862</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579702</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5756,46 +5756,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2758.053686176683</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883926</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716176</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731402</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>441.0680908387445</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050032</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093272</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.57329640738</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5993,10 +5993,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883919</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716168</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731395</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238768</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1630145804051</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6181,16 +6181,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883927</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716176</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731403</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238775</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856338</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.57329640738</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6923,10 +6923,10 @@
         <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6947,40 +6947,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883917</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716167</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731394</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238766</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>303.5569696238766</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>137.9656946497043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>137.9656946497043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7184,19 +7184,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>843.1660143917135</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.183334455158</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.040861638582</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873075</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2665.685099163889</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163889</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734195</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567591</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526187</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526187</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526187</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.606199399225</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.383896716242</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.766946650068</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.911492061102</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.769028640413</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.482904940066</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050121</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319658</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143113</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.81167991708</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>918.2499684003054</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>752.3719756018281</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>582.6139718525653</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>405.9069178143216</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>240.3156428401492</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433324</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2471.193632011779</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2192.760631264884</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2027.468128402255</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1755.441723988547</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1510.049969321959</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.630298636068</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693463</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263769</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097165</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363479</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1093.185322228297</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>920.6236107115215</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>754.745617913044</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>584.9876141637814</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>408.2805601255375</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460366</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713471</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2029.841770713471</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1757.815366299763</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1512.423611633175</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1285.003940947284</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>243.6685872558655</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,25 +8295,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741901</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,22 +8371,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377808</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,19 +8693,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>706.631711544173</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2533329504331</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049986</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,13 +9641,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226369</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807323</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>184.7831561774884</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>37.71410486740339</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>185.1957776566198</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>81.78272691405274</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>117.7661826744332</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>95.57977453680633</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>55.07653710780799</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>139.5921776627252</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>54.79268646174602</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.220053416764728</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>114.1599680048244</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I37" t="n">
-        <v>52.42554389793601</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>208.2197249473431</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>201.9333177378961</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.388026562679851</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>268.0111327346203</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>81.78272691405313</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>487525.344690161</v>
+        <v>493866.5059017987</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>487525.344690161</v>
+        <v>495008.2459247614</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481017.5167836556</v>
+        <v>501317.0056593133</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481017.5167836556</v>
+        <v>501317.0056593135</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>487805.1417597153</v>
+        <v>501317.0056593134</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>501317.0056593133</v>
+        <v>501317.0056593134</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>501317.0056593134</v>
+        <v>501317.0056593133</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>494529.3806832538</v>
+        <v>501317.0056593134</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481017.5167836556</v>
+        <v>501317.0056593134</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26317,19 @@
         <v>469128.9049041075</v>
       </c>
       <c r="D2" t="n">
-        <v>469128.9049041075</v>
+        <v>469128.9049041076</v>
       </c>
       <c r="E2" t="n">
-        <v>442333.410725217</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="F2" t="n">
-        <v>442333.4107252168</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="G2" t="n">
-        <v>448575.1653425118</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201833</v>
@@ -26350,10 +26350,10 @@
         <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
-        <v>454758.6315028883</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="P2" t="n">
-        <v>442333.4107252169</v>
+        <v>461000.3861201832</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850446</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996335</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947851</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960744</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="F4" t="n">
-        <v>39457.78817960744</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>40014.57594554743</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26454,10 +26454,10 @@
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>40566.16416397272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>39457.78817960744</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.344800242</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319803</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79948.283051362</v>
+        <v>79948.28305136197</v>
       </c>
       <c r="C6" t="n">
-        <v>222139.5837110719</v>
+        <v>183849.7584063037</v>
       </c>
       <c r="D6" t="n">
-        <v>222139.5837110719</v>
+        <v>244005.0375534625</v>
       </c>
       <c r="E6" t="n">
-        <v>95001.25824592463</v>
+        <v>159780.8620240458</v>
       </c>
       <c r="F6" t="n">
-        <v>329356.2802679619</v>
+        <v>342135.9712450955</v>
       </c>
       <c r="G6" t="n">
-        <v>327308.033553872</v>
+        <v>342135.9712450955</v>
       </c>
       <c r="H6" t="n">
-        <v>329756.4406045148</v>
+        <v>342135.9712450955</v>
       </c>
       <c r="I6" t="n">
-        <v>342159.1955844781</v>
+        <v>342135.9712450954</v>
       </c>
       <c r="J6" t="n">
-        <v>231144.7302394878</v>
+        <v>231121.5059001053</v>
       </c>
       <c r="K6" t="n">
-        <v>342159.1955844781</v>
+        <v>289090.1166063229</v>
       </c>
       <c r="L6" t="n">
-        <v>342159.1955844781</v>
+        <v>332743.6695184731</v>
       </c>
       <c r="M6" t="n">
-        <v>146558.0163014103</v>
+        <v>189935.8003071077</v>
       </c>
       <c r="N6" t="n">
-        <v>342159.1955844781</v>
+        <v>342135.9712450954</v>
       </c>
       <c r="O6" t="n">
-        <v>337878.2312557175</v>
+        <v>342135.9712450954</v>
       </c>
       <c r="P6" t="n">
-        <v>329356.280267962</v>
+        <v>342135.9712450953</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631547</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319862</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760673</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319862</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760673</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>147.2153150401801</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.71868052833509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27588,16 +27588,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>122.6735968424643</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>12.29640567097772</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>99.12156952133336</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>119.6747557865337</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>272.5409881190398</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>30.73491299759269</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28059,16 +28059,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>242.8241876663074</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>243.6685872558655</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741901</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,22 +35091,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377808</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>706.631711544173</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2533329504331</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,10 +35902,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157532</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049986</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36361,13 +36361,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37069,28 +37069,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,7 +37470,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226369</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807323</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
